--- a/assets/download/Размещение документов на сайте Сириуса.xlsx
+++ b/assets/download/Размещение документов на сайте Сириуса.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="52">
   <si>
     <t>Название документа</t>
   </si>
@@ -134,6 +134,54 @@
   </si>
   <si>
     <t>\\sdkpdc2\FCSM\Гарант\Ответы на предписания\2024 новый СД\СД\ПИФ-ПР\Регламент ПИФ №1\Регламент ПИФ-ПР.pdf</t>
+  </si>
+  <si>
+    <t>Документы ПОД/ФТ, Fatca, формы сертификации</t>
+  </si>
+  <si>
+    <t>\\sdkpdc2\FCSM\Гарант\Ответы на предписания\2024 новый СД\ПОДФТ\Приложения к правилам</t>
+  </si>
+  <si>
+    <t>Формы сертификации согласно Постановлению Правительства РФ № 693</t>
+  </si>
+  <si>
+    <t>\\sdkpdc2\FCSM\Гарант\Ответы на предписания\2024 новый СД\693 формы сертификации\Сириус</t>
+  </si>
+  <si>
+    <t>Лицензии в Раскрытие информации</t>
+  </si>
+  <si>
+    <t>Лицензия профессионального участника рынка ценных бумаг на осуществление депозитарной деятельности от 06.12.2024 № 045-14248-000100</t>
+  </si>
+  <si>
+    <t>\\sdkpdc2\FCSM\Гарант\Ответы на предписания\2024 новый СД\Лицензии\Лицензия деп.pdf</t>
+  </si>
+  <si>
+    <t>https://sdksirius.ru/disclosure.html</t>
+  </si>
+  <si>
+    <t>Раскрытие информации</t>
+  </si>
+  <si>
+    <t>Лицензия специализированного депозитария инвестиционных фондов, паевых инвестиционных фондов и негосударственных пенсионных фондов от 06.12.2024 № 22-000-0-00131</t>
+  </si>
+  <si>
+    <t>\\sdkpdc2\FCSM\Гарант\Ответы на предписания\2024 новый СД\Лицензии\Лицензия СД.pdf</t>
+  </si>
+  <si>
+    <t>\\sdkpdc2\FCSM\Гарант\Ответы на предписания\2024 новый СД\FATCA\Сириус\Фатка\Анкета FATCA ЮЛ.docx</t>
+  </si>
+  <si>
+    <t>\\sdkpdc2\FCSM\Гарант\Ответы на предписания\2024 новый СД\FATCA\Сириус\Фатка\Опросный лист FATCA ФЛ.docx</t>
+  </si>
+  <si>
+    <t>Опросный лист FATCA ФЛ</t>
+  </si>
+  <si>
+    <t>Анкета FATCA ЮЛ</t>
+  </si>
+  <si>
+    <t>Приложения к Правилам ПОД/ФТ (Приложения 1-9)</t>
   </si>
 </sst>
 </file>
@@ -559,17 +607,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E46"/>
+  <dimension ref="B1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" customWidth="1"/>
     <col min="3" max="3" width="70.7109375" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" customWidth="1"/>
@@ -804,52 +852,104 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1"/>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="8"/>
+    </row>
+    <row r="21" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1"/>
+      <c r="B23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
@@ -932,25 +1032,25 @@
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="D41" s="3"/>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="D42" s="3"/>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="D43" s="3"/>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="3"/>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
@@ -965,10 +1065,36 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
     </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B20:E20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1"/>
@@ -998,6 +1124,16 @@
     <hyperlink ref="D18" r:id="rId25"/>
     <hyperlink ref="D19" r:id="rId26"/>
     <hyperlink ref="C18" r:id="rId27"/>
+    <hyperlink ref="C24" r:id="rId28"/>
+    <hyperlink ref="D24" r:id="rId29"/>
+    <hyperlink ref="C25" r:id="rId30"/>
+    <hyperlink ref="D25" r:id="rId31"/>
+    <hyperlink ref="C27" r:id="rId32"/>
+    <hyperlink ref="D27" r:id="rId33"/>
+    <hyperlink ref="C21" r:id="rId34"/>
+    <hyperlink ref="C22" r:id="rId35"/>
+    <hyperlink ref="C26" r:id="rId36"/>
+    <hyperlink ref="D26" r:id="rId37"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
